--- a/biology/Botanique/Trichilia_zewaldae/Trichilia_zewaldae.xlsx
+++ b/biology/Botanique/Trichilia_zewaldae/Trichilia_zewaldae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trichilia zewaldae est une espèce d'arbres de la famille des Meliaceae et du genre Trichilia, endémique du Cameroun.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique zewaldae rend hommage à l'illustratrice botanique Ike Zewald[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique zewaldae rend hommage à l'illustratrice botanique Ike Zewald.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une espèce endémique du Cameroun, observée dans la région du Sud et dans celle du Centre.
-Plusieurs spécimens ont été collectés en 1914 par Georg August Zenker à Bipindi (Sud)[3]. D'autres ont été récoltés en 1964 par J.J.de Wilde, aux environs d'Éséka (Centre), à environ 15 km au sud-ouest du pont sur le Nyong, à une altitude d'environ 200 m[4].
-Dans l'intervalle, l'espèce est à nouveau collectée, en 2002, par Martin Cheek à Ndanan I, puis en 2004 par Martin Etuge, également dans le parc de la Méfou (Mefou Proposed National Park), toujours dans la région du Centre, près de Yaoundé[5]).
+Plusieurs spécimens ont été collectés en 1914 par Georg August Zenker à Bipindi (Sud). D'autres ont été récoltés en 1964 par J.J.de Wilde, aux environs d'Éséka (Centre), à environ 15 km au sud-ouest du pont sur le Nyong, à une altitude d'environ 200 m.
+Dans l'intervalle, l'espèce est à nouveau collectée, en 2002, par Martin Cheek à Ndanan I, puis en 2004 par Martin Etuge, également dans le parc de la Méfou (Mefou Proposed National Park), toujours dans la région du Centre, près de Yaoundé).
 </t>
         </is>
       </c>
@@ -575,13 +591,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C’est un arbre persistant d’une hauteur variant de 7  à   25 mètres, plutôt ramifié. Son tronc peut mesurer entre 20 et 60 cm de diamètre.
 Il pousse dans les forêts plus ou moins primaires et à la lisière des forêts secondaires. On le retrouve à une altitude d’environ 200 mètres au Cameroun et 1 020 mètres au Gabon.
 Les jeunes rameaux sont bruns très foncés, courts, mais densément sarmentés. L’indumentum est gris.
 Les branches plus âgées sont cylindriques, de couleur brune ou rouge-brun, devenant tomenteuses.
-Les fleurs sont de couleur jaune crème ou verte, très parfumées et fréquemment visitées par les insectes[6].
+Les fleurs sont de couleur jaune crème ou verte, très parfumées et fréquemment visitées par les insectes.
 </t>
         </is>
       </c>
